--- a/dad5_smertebehandling_v100_export.xlsx
+++ b/dad5_smertebehandling_v100_export.xlsx
@@ -493,91 +493,91 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SOR_anesthesia</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>pain_management</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Typen og Dato I forhold til smertebehandling som patienten har modtaget</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>OrganizationCode</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>SOR-koden for anæstesiafdelingen</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>pain_management</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Typen og Dato I forhold til smertebehandling som patienten har modtaget</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ekstra oplysninger til udfald: 
+- naad12  = Fødespinal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "epidural_smertebehandling" | "epidural_foedsel" | "naad12" | "perifer_blokade" | </t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SOR_anesthesia</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>OrganizationCode</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ekstra oplysninger til udfald: 
-- naad12  = Fødespinal</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "epidural_smertebehandling" | "epidural_foedsel" | "naad12" | "perifer_blokade" | </t>
+          <t>SOR-koden for anæstesiafdelingen</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>

--- a/dad5_smertebehandling_v100_export.xlsx
+++ b/dad5_smertebehandling_v100_export.xlsx
@@ -493,91 +493,91 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pain_management</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Typen og Dato I forhold til smertebehandling som patienten har modtaget</t>
+          <t>SOR_anesthesia</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>OrganizationCode</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SOR-koden for anæstesiafdelingen</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ResultCode</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ekstra oplysninger til udfald: 
-- naad12  = Fødespinal</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "epidural_smertebehandling" | "epidural_foedsel" | "naad12" | "perifer_blokade" | </t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pain_management</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Typen og Dato I forhold til smertebehandling som patienten har modtaget</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SOR_anesthesia</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>True</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="inlineStr">
         <is>
-          <t>OrganizationCode</t>
+          <t>ResultCode</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SOR-koden for anæstesiafdelingen</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Ekstra oplysninger til udfald: 
+- naad12  = Fødespinal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "epidural_smertebehandling" | "epidural_foedsel" | "naad12" | "perifer_blokade" | </t>
         </is>
       </c>
     </row>

--- a/dad5_smertebehandling_v100_export.xlsx
+++ b/dad5_smertebehandling_v100_export.xlsx
@@ -540,6 +540,11 @@
           <t>Typen og Dato I forhold til smertebehandling som patienten har modtaget</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">

--- a/dad5_smertebehandling_v100_export.xlsx
+++ b/dad5_smertebehandling_v100_export.xlsx
@@ -493,7 +493,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SOR_anesthesia</t>
+          <t>pain_management</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Typen og Dato I forhold til smertebehandling som patienten har modtaget</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -505,84 +510,79 @@
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>OrganizationCode</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>SOR-koden for anæstesiafdelingen</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>pain_management</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Typen og Dato I forhold til smertebehandling som patienten har modtaget</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>True</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ResultCode</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ekstra oplysninger til udfald: 
+- naad12  = Fødespinal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "epidural_smertebehandling" | "epidural_foedsel" | "naad12" | "perifer_blokade" | </t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SOR_anesthesia</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="inlineStr">
         <is>
-          <t>ResultCode</t>
+          <t>OrganizationCode</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ekstra oplysninger til udfald: 
-- naad12  = Fødespinal</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "epidural_smertebehandling" | "epidural_foedsel" | "naad12" | "perifer_blokade" | </t>
+          <t>SOR-koden for anæstesiafdelingen</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
